--- a/Power System Analysis-Fall 2022.xlsx
+++ b/Power System Analysis-Fall 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A047501-2587-4CF3-8C8F-C36562DCE52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCE4BFA-836C-4DCD-AACB-D69EAC2957FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
@@ -809,6 +809,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -845,9 +855,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -860,12 +867,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -887,18 +899,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1495,106 +1495,106 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="C1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1608,10 +1608,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -1623,16 +1623,16 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="50" t="s">
+      <c r="J10" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="31" t="s">
         <v>13</v>
       </c>
@@ -1642,12 +1642,12 @@
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="33" t="s">
         <v>10</v>
       </c>
@@ -1667,19 +1667,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -2514,16 +2514,16 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="58"/>
+      <c r="D55" s="41"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="58" t="s">
+      <c r="H55" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="58"/>
+      <c r="I55" s="41"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
@@ -2543,16 +2543,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2564,6 +2554,16 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
@@ -2601,118 +2601,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="C1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2726,10 +2726,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -2749,16 +2749,16 @@
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="50" t="s">
+      <c r="J10" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="31" t="s">
         <v>13</v>
       </c>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="33" t="s">
         <v>10</v>
       </c>
@@ -2809,19 +2809,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -3789,16 +3789,16 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="58"/>
+      <c r="D44" s="41"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="58" t="s">
+      <c r="H44" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="58"/>
+      <c r="I44" s="41"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
@@ -3818,12 +3818,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -3833,12 +3833,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -3875,118 +3875,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="C1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -4000,10 +4000,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -4025,16 +4025,16 @@
         <v>30</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="50" t="s">
+      <c r="J10" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="31" t="s">
         <v>13</v>
       </c>
@@ -4054,12 +4054,12 @@
         <v>29</v>
       </c>
       <c r="I11" s="34"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="33" t="s">
         <v>10</v>
       </c>
@@ -4089,19 +4089,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -5127,16 +5127,16 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="58"/>
+      <c r="D44" s="41"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="58" t="s">
+      <c r="H44" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="58"/>
+      <c r="I44" s="41"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
@@ -5156,12 +5156,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -5171,12 +5171,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -5192,8 +5192,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A38" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5213,118 +5213,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="C1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -5338,10 +5338,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -5359,16 +5359,16 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="50" t="s">
+      <c r="J10" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="31" t="s">
         <v>13</v>
       </c>
@@ -5384,12 +5384,12 @@
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="33" t="s">
         <v>10</v>
       </c>
@@ -5415,19 +5415,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -6283,18 +6283,18 @@
         <v>3</v>
       </c>
       <c r="F41" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K41" s="22">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6715,16 +6715,16 @@
       <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="58"/>
+      <c r="D64" s="41"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="58" t="s">
+      <c r="H64" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="58"/>
+      <c r="I64" s="41"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F65" s="3"/>
@@ -6744,12 +6744,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -6759,12 +6759,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -6780,8 +6780,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A27" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6802,103 +6802,103 @@
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="C1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="53" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -6912,56 +6912,56 @@
       <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="67">
+      <c r="C9" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="71">
         <f>August!E5</f>
         <v>0</v>
       </c>
-      <c r="E9" s="67" t="str">
+      <c r="E9" s="71" t="str">
         <f>September!E5</f>
         <v>September 2022</v>
       </c>
-      <c r="F9" s="67" t="str">
+      <c r="F9" s="71" t="str">
         <f>October!E5</f>
         <v>October 2022</v>
       </c>
-      <c r="G9" s="67" t="str">
+      <c r="G9" s="71" t="str">
         <f>November!E5</f>
         <v>November 2022</v>
       </c>
-      <c r="H9" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="65" t="s">
+      <c r="H9" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="62" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="70"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="19" t="s">
         <v>10</v>
       </c>
@@ -6989,7 +6989,7 @@
         <f>(H11/$H$11)*100</f>
         <v>100</v>
       </c>
-      <c r="J11" s="70"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -8063,20 +8063,20 @@
         <v>3</v>
       </c>
       <c r="F39" s="18">
-        <f>October!J41</f>
+        <f>November!F413</f>
         <v>0</v>
       </c>
       <c r="G39" s="18">
         <f>November!J41</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H39" s="20">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I39" s="37">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J39" s="38" t="str">
         <f t="shared" si="2"/>
@@ -8134,15 +8134,15 @@
       <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="58"/>
+      <c r="D43" s="41"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="68" t="s">
+      <c r="G43" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="68"/>
+      <c r="H43" s="61"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F44" s="3"/>
@@ -8158,6 +8158,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="J9:J11"/>
@@ -8173,15 +8182,6 @@
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>

--- a/Power System Analysis-Fall 2022.xlsx
+++ b/Power System Analysis-Fall 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6DF228-7E06-4594-BEB1-F7E4A75B5F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A28C08E-459D-47F2-9A8D-7DAEBD8E69C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
@@ -809,6 +809,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -845,9 +855,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -860,12 +867,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -887,18 +899,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1495,106 +1495,106 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="C1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1608,10 +1608,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -1623,16 +1623,16 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="31" t="s">
         <v>13</v>
       </c>
@@ -1642,12 +1642,12 @@
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="33" t="s">
         <v>10</v>
       </c>
@@ -1667,19 +1667,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -2514,16 +2514,16 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="58"/>
+      <c r="D55" s="41"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="58" t="s">
+      <c r="H55" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="58"/>
+      <c r="I55" s="41"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
@@ -2543,16 +2543,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2564,6 +2554,16 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
@@ -2601,118 +2601,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="C1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2726,10 +2726,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -2749,16 +2749,16 @@
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="31" t="s">
         <v>13</v>
       </c>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="33" t="s">
         <v>10</v>
       </c>
@@ -2809,19 +2809,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -3789,16 +3789,16 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="58"/>
+      <c r="D44" s="41"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="58" t="s">
+      <c r="H44" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="58"/>
+      <c r="I44" s="41"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
@@ -3818,12 +3818,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -3833,12 +3833,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -3875,118 +3875,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="C1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -4000,10 +4000,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -4025,16 +4025,16 @@
         <v>30</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="31" t="s">
         <v>13</v>
       </c>
@@ -4054,12 +4054,12 @@
         <v>29</v>
       </c>
       <c r="I11" s="34"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="33" t="s">
         <v>10</v>
       </c>
@@ -4089,19 +4089,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -5127,16 +5127,16 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="58"/>
+      <c r="D44" s="41"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="58" t="s">
+      <c r="H44" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="58"/>
+      <c r="I44" s="41"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
@@ -5156,12 +5156,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -5171,12 +5171,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -5192,8 +5192,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5213,118 +5213,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="C1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -5338,10 +5338,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -5361,16 +5361,16 @@
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="31" t="s">
         <v>13</v>
       </c>
@@ -5388,12 +5388,12 @@
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="33" t="s">
         <v>10</v>
       </c>
@@ -5421,19 +5421,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -6313,17 +6313,17 @@
         <v>0</v>
       </c>
       <c r="G40" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
       <c r="J40" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K40" s="22">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6779,16 +6779,16 @@
       <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="58"/>
+      <c r="D64" s="41"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="58" t="s">
+      <c r="H64" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="58"/>
+      <c r="I64" s="41"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F65" s="3"/>
@@ -6808,12 +6808,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -6823,12 +6823,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -6844,8 +6844,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6866,103 +6866,103 @@
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="C1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="53" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -6976,56 +6976,56 @@
       <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="67">
+      <c r="C9" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="71">
         <f>August!E5</f>
         <v>0</v>
       </c>
-      <c r="E9" s="67" t="str">
+      <c r="E9" s="71" t="str">
         <f>September!E5</f>
         <v>September 2022</v>
       </c>
-      <c r="F9" s="67" t="str">
+      <c r="F9" s="71" t="str">
         <f>October!E5</f>
         <v>October 2022</v>
       </c>
-      <c r="G9" s="67" t="str">
+      <c r="G9" s="71" t="str">
         <f>November!E5</f>
         <v>November 2022</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="62" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="70"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="19" t="s">
         <v>10</v>
       </c>
@@ -7053,7 +7053,7 @@
         <f>(H11/$H$11)*100</f>
         <v>100</v>
       </c>
-      <c r="J11" s="70"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -8093,15 +8093,15 @@
       </c>
       <c r="G38" s="18">
         <f>November!J40</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H38" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I38" s="37">
         <f t="shared" si="1"/>
-        <v>38.461538461538467</v>
+        <v>46.153846153846153</v>
       </c>
       <c r="J38" s="38" t="str">
         <f t="shared" si="2"/>
@@ -8198,15 +8198,15 @@
       <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="58"/>
+      <c r="D43" s="41"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="68" t="s">
+      <c r="G43" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="68"/>
+      <c r="H43" s="61"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F44" s="3"/>
@@ -8222,6 +8222,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="J9:J11"/>
@@ -8237,15 +8246,6 @@
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
